--- a/tut05/output/0401CS29.xlsx
+++ b/tut05/output/0401CS29.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.163265306122449</v>
+        <v>8.16</v>
       </c>
       <c r="C6" t="n">
-        <v>8.454545454545455</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>8.674418604651162</v>
+        <v>8.67</v>
       </c>
       <c r="E6" t="n">
-        <v>8.063829787234043</v>
+        <v>8.06</v>
       </c>
       <c r="F6" t="n">
-        <v>8.380952380952381</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="G6" t="n">
         <v>8.449999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>9.048780487804878</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="I6" t="n">
         <v>9.699999999999999</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.163265306122449</v>
+        <v>8.16</v>
       </c>
       <c r="C8" t="n">
-        <v>8.301075268817204</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>8.419117647058824</v>
+        <v>8.42</v>
       </c>
       <c r="E8" t="n">
-        <v>8.327868852459016</v>
+        <v>8.33</v>
       </c>
       <c r="F8" t="n">
-        <v>8.337777777777777</v>
+        <v>8.34</v>
       </c>
       <c r="G8" t="n">
-        <v>8.354716981132075</v>
+        <v>8.35</v>
       </c>
       <c r="H8" t="n">
-        <v>8.447712418300654</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>8.592485549132949</v>
+        <v>8.59</v>
       </c>
     </row>
   </sheetData>
